--- a/webscript/usat-construction.xlsx
+++ b/webscript/usat-construction.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="52">
   <si>
     <t>comp_count</t>
   </si>
@@ -37,9 +37,6 @@
     <t>start_date</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>USA Today - All sources</t>
   </si>
   <si>
@@ -172,16 +169,7 @@
     <t>Ford Motor Company</t>
   </si>
   <si>
-    <t>20181231</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>sc=usat and la=en and ((building sector) or (building industry) or (building-sector) or (building-industry) or (construction sector) or (construction industry) or (construction-sector) or (construction-industry))</t>
-  </si>
-  <si>
-    <t>20181001</t>
   </si>
 </sst>
 </file>
@@ -573,7 +561,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>19870630</v>
@@ -585,7 +573,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G2">
         <v>19870401</v>
@@ -596,7 +584,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>19870930</v>
@@ -608,7 +596,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G3">
         <v>19870701</v>
@@ -619,7 +607,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>19871231</v>
@@ -631,7 +619,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G4">
         <v>19871001</v>
@@ -642,7 +630,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>19880331</v>
@@ -654,7 +642,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G5">
         <v>19880101</v>
@@ -665,7 +653,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>19880630</v>
@@ -677,7 +665,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G6">
         <v>19880401</v>
@@ -688,7 +676,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>19880930</v>
@@ -700,7 +688,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G7">
         <v>19880701</v>
@@ -711,7 +699,7 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>19881231</v>
@@ -723,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G8">
         <v>19881001</v>
@@ -734,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9">
         <v>19890331</v>
@@ -746,7 +734,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G9">
         <v>19890101</v>
@@ -757,7 +745,7 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10">
         <v>19890630</v>
@@ -769,7 +757,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G10">
         <v>19890401</v>
@@ -780,7 +768,7 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11">
         <v>19890930</v>
@@ -792,7 +780,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G11">
         <v>19890701</v>
@@ -803,7 +791,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12">
         <v>19891231</v>
@@ -815,7 +803,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G12">
         <v>19891001</v>
@@ -826,7 +814,7 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13">
         <v>19900331</v>
@@ -838,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G13">
         <v>19900101</v>
@@ -849,7 +837,7 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14">
         <v>19900630</v>
@@ -861,7 +849,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G14">
         <v>19900401</v>
@@ -872,7 +860,7 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15">
         <v>19900930</v>
@@ -884,7 +872,7 @@
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G15">
         <v>19900701</v>
@@ -895,7 +883,7 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C16">
         <v>19901231</v>
@@ -907,7 +895,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G16">
         <v>19901001</v>
@@ -918,7 +906,7 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17">
         <v>19910331</v>
@@ -930,7 +918,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G17">
         <v>19910101</v>
@@ -941,7 +929,7 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18">
         <v>19910630</v>
@@ -953,7 +941,7 @@
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G18">
         <v>19910401</v>
@@ -964,7 +952,7 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19">
         <v>19910930</v>
@@ -976,7 +964,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G19">
         <v>19910701</v>
@@ -987,7 +975,7 @@
         <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C20">
         <v>19911231</v>
@@ -999,7 +987,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G20">
         <v>19911001</v>
@@ -1010,7 +998,7 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C21">
         <v>19920331</v>
@@ -1022,7 +1010,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G21">
         <v>19920101</v>
@@ -1033,7 +1021,7 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C22">
         <v>19920630</v>
@@ -1045,7 +1033,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G22">
         <v>19920401</v>
@@ -1056,7 +1044,7 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C23">
         <v>19920930</v>
@@ -1068,7 +1056,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G23">
         <v>19920701</v>
@@ -1079,7 +1067,7 @@
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C24">
         <v>19921231</v>
@@ -1091,7 +1079,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G24">
         <v>19921001</v>
@@ -1102,7 +1090,7 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C25">
         <v>19930331</v>
@@ -1114,7 +1102,7 @@
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G25">
         <v>19930101</v>
@@ -1125,7 +1113,7 @@
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C26">
         <v>19930630</v>
@@ -1137,7 +1125,7 @@
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G26">
         <v>19930401</v>
@@ -1148,7 +1136,7 @@
         <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C27">
         <v>19930930</v>
@@ -1160,7 +1148,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G27">
         <v>19930701</v>
@@ -1171,7 +1159,7 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C28">
         <v>19931231</v>
@@ -1183,7 +1171,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G28">
         <v>19931001</v>
@@ -1194,7 +1182,7 @@
         <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C29">
         <v>19940331</v>
@@ -1206,7 +1194,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G29">
         <v>19940101</v>
@@ -1217,7 +1205,7 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C30">
         <v>19940630</v>
@@ -1229,7 +1217,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G30">
         <v>19940401</v>
@@ -1240,7 +1228,7 @@
         <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C31">
         <v>19940930</v>
@@ -1252,7 +1240,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G31">
         <v>19940701</v>
@@ -1263,7 +1251,7 @@
         <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C32">
         <v>19941231</v>
@@ -1275,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G32">
         <v>19941001</v>
@@ -1286,7 +1274,7 @@
         <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C33">
         <v>19950331</v>
@@ -1298,7 +1286,7 @@
         <v>1</v>
       </c>
       <c r="F33" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G33">
         <v>19950101</v>
@@ -1309,7 +1297,7 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C34">
         <v>19950630</v>
@@ -1321,7 +1309,7 @@
         <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G34">
         <v>19950401</v>
@@ -1332,7 +1320,7 @@
         <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C35">
         <v>19950930</v>
@@ -1344,7 +1332,7 @@
         <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G35">
         <v>19950701</v>
@@ -1355,7 +1343,7 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C36">
         <v>19951231</v>
@@ -1367,7 +1355,7 @@
         <v>1</v>
       </c>
       <c r="F36" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G36">
         <v>19951001</v>
@@ -1378,7 +1366,7 @@
         <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C37">
         <v>19960331</v>
@@ -1390,7 +1378,7 @@
         <v>1</v>
       </c>
       <c r="F37" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G37">
         <v>19960101</v>
@@ -1401,7 +1389,7 @@
         <v>2</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C38">
         <v>19960930</v>
@@ -1413,7 +1401,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G38">
         <v>19960701</v>
@@ -1424,7 +1412,7 @@
         <v>3</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C39">
         <v>19961231</v>
@@ -1436,7 +1424,7 @@
         <v>1</v>
       </c>
       <c r="F39" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G39">
         <v>19961001</v>
@@ -1447,7 +1435,7 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C40">
         <v>19970331</v>
@@ -1459,7 +1447,7 @@
         <v>9</v>
       </c>
       <c r="F40" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G40">
         <v>19970101</v>
@@ -1470,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C41">
         <v>19970331</v>
@@ -1482,7 +1470,7 @@
         <v>9</v>
       </c>
       <c r="F41" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G41">
         <v>19970101</v>
@@ -1493,7 +1481,7 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C42">
         <v>19970331</v>
@@ -1505,7 +1493,7 @@
         <v>9</v>
       </c>
       <c r="F42" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G42">
         <v>19970101</v>
@@ -1516,7 +1504,7 @@
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C43">
         <v>19970331</v>
@@ -1528,7 +1516,7 @@
         <v>9</v>
       </c>
       <c r="F43" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G43">
         <v>19970101</v>
@@ -1539,7 +1527,7 @@
         <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C44">
         <v>19970331</v>
@@ -1551,7 +1539,7 @@
         <v>9</v>
       </c>
       <c r="F44" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G44">
         <v>19970101</v>
@@ -1562,7 +1550,7 @@
         <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C45">
         <v>19970331</v>
@@ -1574,7 +1562,7 @@
         <v>9</v>
       </c>
       <c r="F45" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G45">
         <v>19970101</v>
@@ -1585,7 +1573,7 @@
         <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C46">
         <v>19970331</v>
@@ -1597,7 +1585,7 @@
         <v>9</v>
       </c>
       <c r="F46" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G46">
         <v>19970101</v>
@@ -1608,7 +1596,7 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C47">
         <v>19970331</v>
@@ -1620,7 +1608,7 @@
         <v>9</v>
       </c>
       <c r="F47" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G47">
         <v>19970101</v>
@@ -1631,7 +1619,7 @@
         <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C48">
         <v>19970331</v>
@@ -1643,7 +1631,7 @@
         <v>9</v>
       </c>
       <c r="F48" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G48">
         <v>19970101</v>
@@ -1654,7 +1642,7 @@
         <v>2</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C49">
         <v>19970630</v>
@@ -1666,7 +1654,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G49">
         <v>19970401</v>
@@ -1677,7 +1665,7 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C50">
         <v>19970930</v>
@@ -1689,7 +1677,7 @@
         <v>1</v>
       </c>
       <c r="F50" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G50">
         <v>19970701</v>
@@ -1700,7 +1688,7 @@
         <v>3</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C51">
         <v>19971231</v>
@@ -1712,7 +1700,7 @@
         <v>1</v>
       </c>
       <c r="F51" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G51">
         <v>19971001</v>
@@ -1723,7 +1711,7 @@
         <v>1</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C52">
         <v>19980331</v>
@@ -1735,7 +1723,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G52">
         <v>19980101</v>
@@ -1746,7 +1734,7 @@
         <v>1</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C53">
         <v>19980630</v>
@@ -1758,7 +1746,7 @@
         <v>1</v>
       </c>
       <c r="F53" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G53">
         <v>19980401</v>
@@ -1769,7 +1757,7 @@
         <v>4</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C54">
         <v>19980930</v>
@@ -1781,7 +1769,7 @@
         <v>1</v>
       </c>
       <c r="F54" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G54">
         <v>19980701</v>
@@ -1792,7 +1780,7 @@
         <v>1</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C55">
         <v>19981231</v>
@@ -1804,7 +1792,7 @@
         <v>1</v>
       </c>
       <c r="F55" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G55">
         <v>19981001</v>
@@ -1815,7 +1803,7 @@
         <v>1</v>
       </c>
       <c r="B56" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C56">
         <v>19990630</v>
@@ -1827,7 +1815,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G56">
         <v>19990401</v>
@@ -1838,7 +1826,7 @@
         <v>2</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C57">
         <v>19990930</v>
@@ -1850,7 +1838,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G57">
         <v>19990701</v>
@@ -1861,7 +1849,7 @@
         <v>1</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C58">
         <v>19991231</v>
@@ -1873,7 +1861,7 @@
         <v>1</v>
       </c>
       <c r="F58" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G58">
         <v>19991001</v>
@@ -1884,7 +1872,7 @@
         <v>2</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C59">
         <v>20000331</v>
@@ -1896,7 +1884,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G59">
         <v>20000101</v>
@@ -1907,7 +1895,7 @@
         <v>1</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C60">
         <v>20000930</v>
@@ -1919,7 +1907,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G60">
         <v>20000701</v>
@@ -1930,7 +1918,7 @@
         <v>2</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C61">
         <v>20001231</v>
@@ -1942,7 +1930,7 @@
         <v>1</v>
       </c>
       <c r="F61" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G61">
         <v>20001001</v>
@@ -1953,7 +1941,7 @@
         <v>1</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C62">
         <v>20010331</v>
@@ -1965,7 +1953,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G62">
         <v>20010101</v>
@@ -1976,7 +1964,7 @@
         <v>2</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C63">
         <v>20010630</v>
@@ -1988,7 +1976,7 @@
         <v>1</v>
       </c>
       <c r="F63" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G63">
         <v>20010401</v>
@@ -1999,7 +1987,7 @@
         <v>2</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C64">
         <v>20010930</v>
@@ -2011,7 +1999,7 @@
         <v>1</v>
       </c>
       <c r="F64" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G64">
         <v>20010701</v>
@@ -2022,7 +2010,7 @@
         <v>1</v>
       </c>
       <c r="B65" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C65">
         <v>20011231</v>
@@ -2034,7 +2022,7 @@
         <v>1</v>
       </c>
       <c r="F65" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G65">
         <v>20011001</v>
@@ -2045,7 +2033,7 @@
         <v>2</v>
       </c>
       <c r="B66" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C66">
         <v>20020331</v>
@@ -2057,7 +2045,7 @@
         <v>1</v>
       </c>
       <c r="F66" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G66">
         <v>20020101</v>
@@ -2068,7 +2056,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C67">
         <v>20020630</v>
@@ -2080,7 +2068,7 @@
         <v>1</v>
       </c>
       <c r="F67" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G67">
         <v>20020401</v>
@@ -2091,7 +2079,7 @@
         <v>1</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C68">
         <v>20020930</v>
@@ -2103,7 +2091,7 @@
         <v>1</v>
       </c>
       <c r="F68" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G68">
         <v>20020701</v>
@@ -2114,7 +2102,7 @@
         <v>1</v>
       </c>
       <c r="B69" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C69">
         <v>20021231</v>
@@ -2126,7 +2114,7 @@
         <v>2</v>
       </c>
       <c r="F69" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G69">
         <v>20021001</v>
@@ -2137,7 +2125,7 @@
         <v>1</v>
       </c>
       <c r="B70" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C70">
         <v>20021231</v>
@@ -2149,7 +2137,7 @@
         <v>2</v>
       </c>
       <c r="F70" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G70">
         <v>20021001</v>
@@ -2160,7 +2148,7 @@
         <v>3</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C71">
         <v>20030331</v>
@@ -2172,7 +2160,7 @@
         <v>1</v>
       </c>
       <c r="F71" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G71">
         <v>20030101</v>
@@ -2183,7 +2171,7 @@
         <v>1</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C72">
         <v>20030630</v>
@@ -2195,7 +2183,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G72">
         <v>20030401</v>
@@ -2206,7 +2194,7 @@
         <v>2</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C73">
         <v>20030930</v>
@@ -2218,7 +2206,7 @@
         <v>1</v>
       </c>
       <c r="F73" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G73">
         <v>20030701</v>
@@ -2229,7 +2217,7 @@
         <v>3</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C74">
         <v>20031231</v>
@@ -2241,7 +2229,7 @@
         <v>1</v>
       </c>
       <c r="F74" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G74">
         <v>20031001</v>
@@ -2252,7 +2240,7 @@
         <v>5</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C75">
         <v>20040331</v>
@@ -2264,7 +2252,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G75">
         <v>20040101</v>
@@ -2275,7 +2263,7 @@
         <v>2</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C76">
         <v>20040630</v>
@@ -2287,7 +2275,7 @@
         <v>1</v>
       </c>
       <c r="F76" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G76">
         <v>20040401</v>
@@ -2298,7 +2286,7 @@
         <v>3</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C77">
         <v>20040930</v>
@@ -2310,7 +2298,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G77">
         <v>20040701</v>
@@ -2321,7 +2309,7 @@
         <v>1</v>
       </c>
       <c r="B78" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C78">
         <v>20041231</v>
@@ -2333,7 +2321,7 @@
         <v>2</v>
       </c>
       <c r="F78" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G78">
         <v>20041001</v>
@@ -2344,7 +2332,7 @@
         <v>1</v>
       </c>
       <c r="B79" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C79">
         <v>20041231</v>
@@ -2356,7 +2344,7 @@
         <v>2</v>
       </c>
       <c r="F79" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G79">
         <v>20041001</v>
@@ -2367,7 +2355,7 @@
         <v>2</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C80">
         <v>20050331</v>
@@ -2379,7 +2367,7 @@
         <v>1</v>
       </c>
       <c r="F80" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G80">
         <v>20050101</v>
@@ -2390,7 +2378,7 @@
         <v>5</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C81">
         <v>20050630</v>
@@ -2402,7 +2390,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G81">
         <v>20050401</v>
@@ -2413,7 +2401,7 @@
         <v>3</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C82">
         <v>20050930</v>
@@ -2425,7 +2413,7 @@
         <v>1</v>
       </c>
       <c r="F82" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G82">
         <v>20050701</v>
@@ -2436,7 +2424,7 @@
         <v>6</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C83">
         <v>20051231</v>
@@ -2448,7 +2436,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G83">
         <v>20051001</v>
@@ -2459,7 +2447,7 @@
         <v>4</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C84">
         <v>20060331</v>
@@ -2471,7 +2459,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G84">
         <v>20060101</v>
@@ -2482,7 +2470,7 @@
         <v>1</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C85">
         <v>20060630</v>
@@ -2494,7 +2482,7 @@
         <v>1</v>
       </c>
       <c r="F85" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G85">
         <v>20060401</v>
@@ -2505,7 +2493,7 @@
         <v>1</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C86">
         <v>20061231</v>
@@ -2517,7 +2505,7 @@
         <v>1</v>
       </c>
       <c r="F86" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G86">
         <v>20061001</v>
@@ -2528,7 +2516,7 @@
         <v>4</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C87">
         <v>20070331</v>
@@ -2540,7 +2528,7 @@
         <v>1</v>
       </c>
       <c r="F87" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G87">
         <v>20070101</v>
@@ -2551,7 +2539,7 @@
         <v>1</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C88">
         <v>20070630</v>
@@ -2563,7 +2551,7 @@
         <v>1</v>
       </c>
       <c r="F88" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G88">
         <v>20070401</v>
@@ -2574,7 +2562,7 @@
         <v>1</v>
       </c>
       <c r="B89" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C89">
         <v>20071231</v>
@@ -2586,7 +2574,7 @@
         <v>3</v>
       </c>
       <c r="F89" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G89">
         <v>20071001</v>
@@ -2597,7 +2585,7 @@
         <v>1</v>
       </c>
       <c r="B90" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C90">
         <v>20071231</v>
@@ -2609,7 +2597,7 @@
         <v>3</v>
       </c>
       <c r="F90" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G90">
         <v>20071001</v>
@@ -2620,7 +2608,7 @@
         <v>1</v>
       </c>
       <c r="B91" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C91">
         <v>20071231</v>
@@ -2632,7 +2620,7 @@
         <v>3</v>
       </c>
       <c r="F91" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G91">
         <v>20071001</v>
@@ -2643,7 +2631,7 @@
         <v>1</v>
       </c>
       <c r="B92" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C92">
         <v>20080331</v>
@@ -2655,7 +2643,7 @@
         <v>2</v>
       </c>
       <c r="F92" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G92">
         <v>20080101</v>
@@ -2666,7 +2654,7 @@
         <v>1</v>
       </c>
       <c r="B93" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C93">
         <v>20080331</v>
@@ -2678,7 +2666,7 @@
         <v>2</v>
       </c>
       <c r="F93" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G93">
         <v>20080101</v>
@@ -2689,7 +2677,7 @@
         <v>1</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C94">
         <v>20080630</v>
@@ -2701,7 +2689,7 @@
         <v>1</v>
       </c>
       <c r="F94" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G94">
         <v>20080401</v>
@@ -2712,7 +2700,7 @@
         <v>2</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C95">
         <v>20080930</v>
@@ -2724,7 +2712,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G95">
         <v>20080701</v>
@@ -2735,7 +2723,7 @@
         <v>3</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C96">
         <v>20081231</v>
@@ -2747,7 +2735,7 @@
         <v>1</v>
       </c>
       <c r="F96" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G96">
         <v>20081001</v>
@@ -2758,7 +2746,7 @@
         <v>1</v>
       </c>
       <c r="B97" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C97">
         <v>20090331</v>
@@ -2770,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="F97" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G97">
         <v>20090101</v>
@@ -2781,7 +2769,7 @@
         <v>5</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C98">
         <v>20090630</v>
@@ -2793,7 +2781,7 @@
         <v>1</v>
       </c>
       <c r="F98" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G98">
         <v>20090401</v>
@@ -2804,7 +2792,7 @@
         <v>4</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C99">
         <v>20090930</v>
@@ -2816,7 +2804,7 @@
         <v>1</v>
       </c>
       <c r="F99" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G99">
         <v>20090701</v>
@@ -2827,7 +2815,7 @@
         <v>4</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C100">
         <v>20091231</v>
@@ -2839,7 +2827,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G100">
         <v>20091001</v>
@@ -2850,7 +2838,7 @@
         <v>1</v>
       </c>
       <c r="B101" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C101">
         <v>20100331</v>
@@ -2862,7 +2850,7 @@
         <v>1</v>
       </c>
       <c r="F101" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G101">
         <v>20100101</v>
@@ -2873,7 +2861,7 @@
         <v>4</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C102">
         <v>20100630</v>
@@ -2885,7 +2873,7 @@
         <v>1</v>
       </c>
       <c r="F102" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G102">
         <v>20100401</v>
@@ -2896,7 +2884,7 @@
         <v>1</v>
       </c>
       <c r="B103" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C103">
         <v>20100930</v>
@@ -2908,7 +2896,7 @@
         <v>1</v>
       </c>
       <c r="F103" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G103">
         <v>20100701</v>
@@ -2919,7 +2907,7 @@
         <v>2</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C104">
         <v>20101231</v>
@@ -2931,7 +2919,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G104">
         <v>20101001</v>
@@ -2942,7 +2930,7 @@
         <v>1</v>
       </c>
       <c r="B105" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C105">
         <v>20110331</v>
@@ -2954,7 +2942,7 @@
         <v>3</v>
       </c>
       <c r="F105" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G105">
         <v>20110101</v>
@@ -2965,7 +2953,7 @@
         <v>1</v>
       </c>
       <c r="B106" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C106">
         <v>20110331</v>
@@ -2977,7 +2965,7 @@
         <v>3</v>
       </c>
       <c r="F106" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G106">
         <v>20110101</v>
@@ -2988,7 +2976,7 @@
         <v>1</v>
       </c>
       <c r="B107" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C107">
         <v>20110331</v>
@@ -3000,7 +2988,7 @@
         <v>3</v>
       </c>
       <c r="F107" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G107">
         <v>20110101</v>
@@ -3011,7 +2999,7 @@
         <v>2</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C108">
         <v>20110630</v>
@@ -3023,7 +3011,7 @@
         <v>1</v>
       </c>
       <c r="F108" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G108">
         <v>20110401</v>
@@ -3034,7 +3022,7 @@
         <v>1</v>
       </c>
       <c r="B109" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C109">
         <v>20111231</v>
@@ -3046,7 +3034,7 @@
         <v>1</v>
       </c>
       <c r="F109" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G109">
         <v>20111001</v>
@@ -3057,7 +3045,7 @@
         <v>1</v>
       </c>
       <c r="B110" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C110">
         <v>20120331</v>
@@ -3069,7 +3057,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G110">
         <v>20120101</v>
@@ -3080,7 +3068,7 @@
         <v>1</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C111">
         <v>20120630</v>
@@ -3092,7 +3080,7 @@
         <v>1</v>
       </c>
       <c r="F111" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G111">
         <v>20120401</v>
@@ -3103,7 +3091,7 @@
         <v>3</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C112">
         <v>20120930</v>
@@ -3115,7 +3103,7 @@
         <v>1</v>
       </c>
       <c r="F112" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G112">
         <v>20120701</v>
@@ -3126,7 +3114,7 @@
         <v>3</v>
       </c>
       <c r="B113" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C113">
         <v>20121231</v>
@@ -3138,7 +3126,7 @@
         <v>3</v>
       </c>
       <c r="F113" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G113">
         <v>20121001</v>
@@ -3149,7 +3137,7 @@
         <v>1</v>
       </c>
       <c r="B114" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C114">
         <v>20121231</v>
@@ -3161,7 +3149,7 @@
         <v>3</v>
       </c>
       <c r="F114" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G114">
         <v>20121001</v>
@@ -3172,7 +3160,7 @@
         <v>1</v>
       </c>
       <c r="B115" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C115">
         <v>20121231</v>
@@ -3184,7 +3172,7 @@
         <v>3</v>
       </c>
       <c r="F115" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G115">
         <v>20121001</v>
@@ -3195,7 +3183,7 @@
         <v>1</v>
       </c>
       <c r="B116" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C116">
         <v>20130331</v>
@@ -3207,7 +3195,7 @@
         <v>1</v>
       </c>
       <c r="F116" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G116">
         <v>20130101</v>
@@ -3218,7 +3206,7 @@
         <v>1</v>
       </c>
       <c r="B117" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C117">
         <v>20130630</v>
@@ -3230,7 +3218,7 @@
         <v>3</v>
       </c>
       <c r="F117" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G117">
         <v>20130401</v>
@@ -3241,7 +3229,7 @@
         <v>1</v>
       </c>
       <c r="B118" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C118">
         <v>20130630</v>
@@ -3253,7 +3241,7 @@
         <v>3</v>
       </c>
       <c r="F118" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G118">
         <v>20130401</v>
@@ -3264,7 +3252,7 @@
         <v>1</v>
       </c>
       <c r="B119" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C119">
         <v>20130630</v>
@@ -3276,7 +3264,7 @@
         <v>3</v>
       </c>
       <c r="F119" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G119">
         <v>20130401</v>
@@ -3287,7 +3275,7 @@
         <v>1</v>
       </c>
       <c r="B120" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C120">
         <v>20130930</v>
@@ -3299,7 +3287,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G120">
         <v>20130701</v>
@@ -3310,7 +3298,7 @@
         <v>1</v>
       </c>
       <c r="B121" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C121">
         <v>20131231</v>
@@ -3322,7 +3310,7 @@
         <v>1</v>
       </c>
       <c r="F121" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G121">
         <v>20131001</v>
@@ -3333,7 +3321,7 @@
         <v>1</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C122">
         <v>20140630</v>
@@ -3345,7 +3333,7 @@
         <v>1</v>
       </c>
       <c r="F122" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G122">
         <v>20140401</v>
@@ -3356,7 +3344,7 @@
         <v>1</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C123">
         <v>20150331</v>
@@ -3368,7 +3356,7 @@
         <v>1</v>
       </c>
       <c r="F123" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G123">
         <v>20150101</v>
@@ -3379,7 +3367,7 @@
         <v>1</v>
       </c>
       <c r="B124" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C124">
         <v>20150630</v>
@@ -3391,7 +3379,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G124">
         <v>20150401</v>
@@ -3402,7 +3390,7 @@
         <v>1</v>
       </c>
       <c r="B125" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C125">
         <v>20160331</v>
@@ -3414,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="F125" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G125">
         <v>20160101</v>
@@ -3425,7 +3413,7 @@
         <v>1</v>
       </c>
       <c r="B126" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C126">
         <v>20161231</v>
@@ -3437,7 +3425,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G126">
         <v>20161001</v>
@@ -3448,7 +3436,7 @@
         <v>1</v>
       </c>
       <c r="B127" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C127">
         <v>20170630</v>
@@ -3460,7 +3448,7 @@
         <v>1</v>
       </c>
       <c r="F127" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G127">
         <v>20170401</v>
@@ -3471,7 +3459,7 @@
         <v>1</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C128">
         <v>20170930</v>
@@ -3483,7 +3471,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G128">
         <v>20170701</v>
@@ -3494,7 +3482,7 @@
         <v>4</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C129">
         <v>20171231</v>
@@ -3506,7 +3494,7 @@
         <v>1</v>
       </c>
       <c r="F129" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G129">
         <v>20171001</v>
@@ -3517,7 +3505,7 @@
         <v>1</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C130">
         <v>20180331</v>
@@ -3529,7 +3517,7 @@
         <v>1</v>
       </c>
       <c r="F130" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G130">
         <v>20180101</v>
@@ -3540,7 +3528,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C131">
         <v>20180630</v>
@@ -3552,33 +3540,33 @@
         <v>1</v>
       </c>
       <c r="F131" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G131">
         <v>20180401</v>
       </c>
     </row>
     <row r="132" spans="1:7">
-      <c r="A132" t="s">
-        <v>7</v>
+      <c r="A132">
+        <v>1</v>
       </c>
       <c r="B132" t="s">
-        <v>51</v>
-      </c>
-      <c r="C132" t="s">
-        <v>52</v>
-      </c>
-      <c r="D132" t="s">
-        <v>53</v>
+        <v>50</v>
+      </c>
+      <c r="C132">
+        <v>20181231</v>
+      </c>
+      <c r="D132">
+        <v>2</v>
       </c>
       <c r="E132">
         <v>1</v>
       </c>
       <c r="F132" t="s">
-        <v>54</v>
-      </c>
-      <c r="G132" t="s">
-        <v>55</v>
+        <v>51</v>
+      </c>
+      <c r="G132">
+        <v>20181001</v>
       </c>
     </row>
   </sheetData>
